--- a/data/georgia_census/shida-qartli/qareli/education_graduates.xlsx
+++ b/data/georgia_census/shida-qartli/qareli/education_graduates.xlsx
@@ -1827,13 +1827,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AA2F26-B2F0-43E0-81C6-CB1F2DA41ADE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B81927B-B087-4CF7-84E4-8F0FF1BC90BE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D4959D24-3634-4230-A319-510E1F97AE6D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C7EF0C8-709D-4E5D-91FB-609F4409B5AB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D5862E5-36C7-403E-8CBB-CAC48B99CF95}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB6EA663-17C0-4339-814B-82AF8D6AA411}"/>
 </file>